--- a/Base/Teams/Saints/QBs Target Depth Data.xlsx
+++ b/Base/Teams/Saints/QBs Target Depth Data.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="T.Siemian" sheetId="1" r:id="rId1"/>
-    <sheet name="T.Hill" sheetId="2" r:id="rId2"/>
+    <sheet name="T.Hill" sheetId="1" r:id="rId1"/>
+    <sheet name="T.Siemian" sheetId="2" r:id="rId2"/>
     <sheet name="I.Book" sheetId="3" r:id="rId3"/>
     <sheet name="J.Winston" sheetId="4" r:id="rId4"/>
   </sheets>
